--- a/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>1.986339914982717</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2.746420781179691</v>
+        <v>2.74642078117969</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.160417427240634</v>
+        <v>1.154884191639456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.669371024081242</v>
+        <v>1.674150370817296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.472793087389227</v>
+        <v>1.473264897168091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.923925245334863</v>
+        <v>1.917785163210741</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.642430530911296</v>
+        <v>1.640339087680622</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.393509233349931</v>
+        <v>2.378137337058787</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.166740436881098</v>
+        <v>2.169353213194273</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.061714597769441</v>
+        <v>3.06864311043512</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.458251351164985</v>
+        <v>1.449015006753419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.109742702419073</v>
+        <v>2.110491910328783</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.896073759204745</v>
+        <v>1.905190703805803</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.637764885430583</v>
+        <v>2.616586472047349</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.334535150808264</v>
+        <v>1.330984683474527</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.898572254980051</v>
+        <v>1.902877855451104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.699236146892535</v>
+        <v>1.69303321909029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.285218369914165</v>
+        <v>2.287493713402352</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.823980235489161</v>
+        <v>1.813599664762956</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.62197576523812</v>
+        <v>2.611407873319719</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.421849430753514</v>
+        <v>2.424718470481834</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.352889481054336</v>
+        <v>3.361680097422563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.58802391764993</v>
+        <v>1.584640015408291</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.28334006533625</v>
+        <v>2.271299580903184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.066435443315734</v>
+        <v>2.078723388516473</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.875127178341945</v>
+        <v>2.864326052838864</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4139838573514564</v>
+        <v>0.4114161704408552</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6655572467756209</v>
+        <v>0.6646721739516422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6929131931733369</v>
+        <v>0.6933370048536835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.004060683139415</v>
+        <v>1.004291360111153</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7086136684132811</v>
+        <v>0.7080557382545245</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.063718835822985</v>
+        <v>1.065707613330322</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.023751607850197</v>
+        <v>1.032088279296678</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.309399698251919</v>
+        <v>1.308231239381087</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5666731869695021</v>
+        <v>0.5666916478894618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8700686386897116</v>
+        <v>0.8673214821306341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8722036925583762</v>
+        <v>0.8697280400026067</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.170179856546895</v>
+        <v>1.177012789779011</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4911186272083998</v>
+        <v>0.4946737938041447</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7663695046197067</v>
+        <v>0.764472751977275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7914632346716863</v>
+        <v>0.7885236840599561</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.147597300770616</v>
+        <v>1.142257686415072</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8193355880276924</v>
+        <v>0.8169061460699283</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.194649008609548</v>
+        <v>1.190825837175343</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.152107231079681</v>
+        <v>1.159335049033194</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.442274271322662</v>
+        <v>1.443351258083284</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6370915497054876</v>
+        <v>0.639643895858986</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9523754333905131</v>
+        <v>0.9516131083039816</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9536014203446472</v>
+        <v>0.9552129263665124</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.26713977244199</v>
+        <v>1.271299255524481</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.6897570162211289</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9884231319690555</v>
+        <v>0.9884231319690552</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7966246693431782</v>
@@ -965,7 +965,7 @@
         <v>0.778009963658982</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>1.084399151966705</v>
+        <v>1.084399151966704</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4645439221340349</v>
+        <v>0.4541525406598929</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5625168486737125</v>
+        <v>0.5732602572305874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.612922822612753</v>
+        <v>0.6120388473160779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.891810431089286</v>
+        <v>0.900567996265072</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7043085952951154</v>
+        <v>0.7123277850356398</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8726807666767847</v>
+        <v>0.8623724068925673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7721882990715265</v>
+        <v>0.7710627694298438</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.091461047934542</v>
+        <v>1.086237925423785</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.599648104833798</v>
+        <v>0.5998345661945231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.748761009974009</v>
+        <v>0.7416611902067707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7181329482325804</v>
+        <v>0.7163069503428515</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.020704679597523</v>
+        <v>1.014254226013145</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6378333703450638</v>
+        <v>0.6332339665376961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9117123210608827</v>
+        <v>0.9443177253311149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7848304821043026</v>
+        <v>0.784935164272455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.086129576196747</v>
+        <v>1.089308613817889</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.89270704347853</v>
+        <v>0.8934107620438775</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.110175346959282</v>
+        <v>1.103508957044206</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.959891737130825</v>
+        <v>0.968220038030282</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.275691110853158</v>
+        <v>1.282068688637478</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7296368840055751</v>
+        <v>0.7267336873470915</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9615681383986149</v>
+        <v>0.9552485494298151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8488794306584523</v>
+        <v>0.8471180783603386</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.153023838750648</v>
+        <v>1.15609712953929</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6802186333896015</v>
+        <v>0.6790810843551452</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9612905892120889</v>
+        <v>0.9655879546603555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8766669668283839</v>
+        <v>0.8749534428252363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.165789753927253</v>
+        <v>1.164913350556708</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.088526695096107</v>
+        <v>1.094416956265885</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.558718323692397</v>
+        <v>1.565977306344399</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.343089279683881</v>
+        <v>1.337987964198568</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.687031217175846</v>
+        <v>1.679497476971998</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9005833158051764</v>
+        <v>0.9001271337604488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.287244673114664</v>
+        <v>1.286465113355835</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.127237632508688</v>
+        <v>1.124231962373101</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.447878765835525</v>
+        <v>1.448964243001921</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7594834561388329</v>
+        <v>0.7581598268014363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.070465813980599</v>
+        <v>1.066254084345135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9619683120401733</v>
+        <v>0.9614882670037328</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.28584701565175</v>
+        <v>1.282978956157617</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.185510617866816</v>
+        <v>1.19234308509979</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.683384214099548</v>
+        <v>1.684547153636567</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.452818336985921</v>
+        <v>1.454259029411785</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.798425688014244</v>
+        <v>1.797050538904275</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9659232294113056</v>
+        <v>0.9640773568191172</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.371179335875055</v>
+        <v>1.366006616356381</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.199613227739565</v>
+        <v>1.195576611374685</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.530068475191928</v>
+        <v>1.531873981344198</v>
       </c>
     </row>
     <row r="16">
